--- a/Mock_Sales_Data.xlsx
+++ b/Mock_Sales_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RevatureLLC\Training\Day2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FA6584-D59A-45C3-A1EC-598F62B7069A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29CC9FF-DFAD-41F4-AC71-D2E25115FFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BB70D9F3-E3A8-4AB0-B9F5-DDB856F7D0D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{BB70D9F3-E3A8-4AB0-B9F5-DDB856F7D0D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Mock_Sales_Data" sheetId="13" r:id="rId1"/>
@@ -30,8 +30,8 @@
     <pivotCache cacheId="0" r:id="rId6"/>
     <pivotCache cacheId="1" r:id="rId7"/>
     <pivotCache cacheId="2" r:id="rId8"/>
-    <pivotCache cacheId="3" r:id="rId9"/>
-    <pivotCache cacheId="4" r:id="rId10"/>
+    <pivotCache cacheId="4" r:id="rId9"/>
+    <pivotCache cacheId="69" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="33">
   <si>
     <t>Sales Rep</t>
   </si>
@@ -135,7 +135,34 @@
     <t>Total Sales in 2022 Q1 (in $)</t>
   </si>
   <si>
-    <t>Average of Sales (in $)</t>
+    <t>Total Sales 2022 (in $)</t>
+  </si>
+  <si>
+    <t>Total Sales in 2022 (in $)</t>
+  </si>
+  <si>
+    <t>Q3 Total Sales in 2022 (in $)</t>
+  </si>
+  <si>
+    <t>Q2 Total Sales in 2022 (in $)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom has sold the most in 2022 </t>
+  </si>
+  <si>
+    <t>Q4 Total Sales in 2022 (in $)</t>
+  </si>
+  <si>
+    <t>Graphics Cards were popular in Q1</t>
+  </si>
+  <si>
+    <t>Accessories were popular in Q2</t>
+  </si>
+  <si>
+    <t>Routers were popular in Q3</t>
+  </si>
+  <si>
+    <t>Graphics Cards were popular in Q4</t>
   </si>
 </sst>
 </file>
@@ -257,7 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -276,7 +303,6 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -288,13 +314,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -731,36 +776,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -778,7 +793,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
+  <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
@@ -793,6 +808,31 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Sales in 2022</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -947,25 +987,25 @@
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4992.25</c:v>
+                  <c:v>99845</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4564.5555555555557</c:v>
+                  <c:v>41081</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5592.588235294118</c:v>
+                  <c:v>95074</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5849.6</c:v>
+                  <c:v>87744</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5770.5625</c:v>
+                  <c:v>92329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4839.5</c:v>
+                  <c:v>38716</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6455.7857142857147</c:v>
+                  <c:v>90381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1149,15 +1189,12 @@
   <c:spPr>
     <a:solidFill>
       <a:schemeClr val="bg1">
-        <a:lumMod val="75000"/>
+        <a:alpha val="78000"/>
       </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1216,6 +1253,33 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Sales 2022</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1779,6 +1843,1313 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
+    <c:name>[Mock_Sales_Data.xlsx]Quarter 1!PivotTable4</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Quarter 1'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Quarter 1'!$F$3:$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Accessories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Desks</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Graphics Cards</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hard Drives</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Monitors</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Routers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Quarter 1'!$G$3:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>18880</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25741</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40174</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14472</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8659</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33135</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8CB9-41B7-898D-0896F94D430C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2103480287"/>
+        <c:axId val="2026703087"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2103480287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2026703087"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2026703087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2103480287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Mock_Sales_Data.xlsx]Quarter2!PivotTable5</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Sales in Q2 2022</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Quarter2!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Quarter2!$F$3:$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Accessories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Computers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Desks</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Graphics Cards</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Hard Drives</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Monitors</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Routers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Quarter2!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>26634</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18475</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17369</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23607</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6561</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13779</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A74B-4BFA-91C7-9FCEBCD8AB3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2017032543"/>
+        <c:axId val="2026696143"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2017032543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2026696143"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2026696143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2017032543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Mock_Sales_Data.xlsx]Quarter3!PivotTable6</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Sales in Q3 2022</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Quarter3!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Quarter3!$F$4:$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Accessories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Computers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Desks</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Graphics Cards</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Hard Drives</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Monitors</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Routers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Quarter3!$G$4:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>22988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20063</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26694</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9227</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20677</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3054</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43467</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A184-473D-BB94-A6E9FC0FD2BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="883475855"/>
+        <c:axId val="2026671343"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="883475855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2026671343"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2026671343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="883475855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
     <c:name>[Mock_Sales_Data.xlsx]Quarter4!PivotTable7</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
@@ -1819,7 +3190,7 @@
         <c:idx val="0"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="00B050"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1894,7 +3265,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="00B050"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2300,6 +3671,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3809,20 +5300,1529 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>777875</xdr:colOff>
+      <xdr:colOff>111125</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3890,16 +6890,139 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>644525</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B0B2C0F-8074-8F83-0FB0-9C05332D0B75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>117475</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>701675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C292A28-D11C-5468-25E7-3AEDFDFB553F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>73025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>73025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA831159-8771-A1FD-839F-F5EC02ACC8F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4049,14 +7172,48 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="865645547"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Aaron" refreshedDate="45315.651769444441" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="25" xr:uid="{DEF4CAC1-EB0A-493E-B718-37061A4F4987}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D26" sheet="Quarter4"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Sales Rep" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Hard Drives"/>
+        <s v="Graphics Cards"/>
+        <s v="Accessories"/>
+        <s v="Desks"/>
+        <s v="Monitors"/>
+        <s v="Computers"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sales (in $)" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1462" maxValue="9181"/>
+    </cacheField>
+    <cacheField name="Date_Of_Sale" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2022-10-11T00:00:00" maxDate="2022-12-12T00:00:00"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
       <x14:pivotCacheDefinition/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Aaron" refreshedDate="45315.637708101851" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="99" xr:uid="{B28EDEB0-A505-49EC-9E4A-0460452A4FA8}">
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Aaron" refreshedDate="45316.526439004629" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="99" xr:uid="{B28EDEB0-A505-49EC-9E4A-0460452A4FA8}">
   <cacheSource type="worksheet">
     <worksheetSource name="Sales_Data"/>
   </cacheSource>
@@ -4098,40 +7255,6 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Aaron" refreshedDate="45315.651769444441" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="25" xr:uid="{DEF4CAC1-EB0A-493E-B718-37061A4F4987}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D26" sheet="Quarter4"/>
-  </cacheSource>
-  <cacheFields count="4">
-    <cacheField name="Sales Rep" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Category" numFmtId="0">
-      <sharedItems count="6">
-        <s v="Hard Drives"/>
-        <s v="Graphics Cards"/>
-        <s v="Accessories"/>
-        <s v="Desks"/>
-        <s v="Monitors"/>
-        <s v="Computers"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Sales (in $)" numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1462" maxValue="9181"/>
-    </cacheField>
-    <cacheField name="Date_Of_Sale" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2022-10-11T00:00:00" maxDate="2022-12-12T00:00:00"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="22">
   <r>
@@ -4592,6 +7715,161 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="25">
+  <r>
+    <s v="Tom"/>
+    <x v="0"/>
+    <n v="7906"/>
+    <d v="2022-10-11T00:00:00"/>
+  </r>
+  <r>
+    <s v="Shelly"/>
+    <x v="1"/>
+    <n v="7548"/>
+    <d v="2022-10-11T00:00:00"/>
+  </r>
+  <r>
+    <s v="Isaac"/>
+    <x v="0"/>
+    <n v="4868"/>
+    <d v="2022-10-13T00:00:00"/>
+  </r>
+  <r>
+    <s v="Hannah"/>
+    <x v="2"/>
+    <n v="4379"/>
+    <d v="2022-10-16T00:00:00"/>
+  </r>
+  <r>
+    <s v="Isaac"/>
+    <x v="3"/>
+    <n v="3472"/>
+    <d v="2022-10-19T00:00:00"/>
+  </r>
+  <r>
+    <s v="Tom"/>
+    <x v="2"/>
+    <n v="4554"/>
+    <d v="2022-10-20T00:00:00"/>
+  </r>
+  <r>
+    <s v="Mark"/>
+    <x v="1"/>
+    <n v="6896"/>
+    <d v="2022-10-21T00:00:00"/>
+  </r>
+  <r>
+    <s v="Ashley"/>
+    <x v="3"/>
+    <n v="5839"/>
+    <d v="2022-10-21T00:00:00"/>
+  </r>
+  <r>
+    <s v="Ashley"/>
+    <x v="4"/>
+    <n v="8890"/>
+    <d v="2022-10-23T00:00:00"/>
+  </r>
+  <r>
+    <s v="Mark"/>
+    <x v="3"/>
+    <n v="8845"/>
+    <d v="2022-10-26T00:00:00"/>
+  </r>
+  <r>
+    <s v="Bob"/>
+    <x v="0"/>
+    <n v="6273"/>
+    <d v="2022-10-28T00:00:00"/>
+  </r>
+  <r>
+    <s v="Shelly"/>
+    <x v="1"/>
+    <n v="8269"/>
+    <d v="2022-11-10T00:00:00"/>
+  </r>
+  <r>
+    <s v="Ashley"/>
+    <x v="0"/>
+    <n v="3663"/>
+    <d v="2022-11-10T00:00:00"/>
+  </r>
+  <r>
+    <s v="Tom"/>
+    <x v="2"/>
+    <n v="8697"/>
+    <d v="2022-11-12T00:00:00"/>
+  </r>
+  <r>
+    <s v="Isaac"/>
+    <x v="1"/>
+    <n v="9181"/>
+    <d v="2022-11-14T00:00:00"/>
+  </r>
+  <r>
+    <s v="Hannah"/>
+    <x v="1"/>
+    <n v="2726"/>
+    <d v="2022-11-17T00:00:00"/>
+  </r>
+  <r>
+    <s v="Hannah"/>
+    <x v="0"/>
+    <n v="4399"/>
+    <d v="2022-11-19T00:00:00"/>
+  </r>
+  <r>
+    <s v="Ashley"/>
+    <x v="3"/>
+    <n v="7114"/>
+    <d v="2022-11-20T00:00:00"/>
+  </r>
+  <r>
+    <s v="Hannah"/>
+    <x v="0"/>
+    <n v="6464"/>
+    <d v="2022-11-21T00:00:00"/>
+  </r>
+  <r>
+    <s v="Tom"/>
+    <x v="2"/>
+    <n v="8042"/>
+    <d v="2022-11-28T00:00:00"/>
+  </r>
+  <r>
+    <s v="Ashley"/>
+    <x v="4"/>
+    <n v="5476"/>
+    <d v="2022-12-01T00:00:00"/>
+  </r>
+  <r>
+    <s v="Mark"/>
+    <x v="5"/>
+    <n v="2543"/>
+    <d v="2022-12-04T00:00:00"/>
+  </r>
+  <r>
+    <s v="Hannah"/>
+    <x v="2"/>
+    <n v="1462"/>
+    <d v="2022-12-06T00:00:00"/>
+  </r>
+  <r>
+    <s v="Isaac"/>
+    <x v="4"/>
+    <n v="6076"/>
+    <d v="2022-12-08T00:00:00"/>
+  </r>
+  <r>
+    <s v="Shelly"/>
+    <x v="2"/>
+    <n v="4209"/>
+    <d v="2022-12-11T00:00:00"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="99">
   <r>
     <x v="0"/>
@@ -5190,163 +8468,8 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="25">
-  <r>
-    <s v="Tom"/>
-    <x v="0"/>
-    <n v="7906"/>
-    <d v="2022-10-11T00:00:00"/>
-  </r>
-  <r>
-    <s v="Shelly"/>
-    <x v="1"/>
-    <n v="7548"/>
-    <d v="2022-10-11T00:00:00"/>
-  </r>
-  <r>
-    <s v="Isaac"/>
-    <x v="0"/>
-    <n v="4868"/>
-    <d v="2022-10-13T00:00:00"/>
-  </r>
-  <r>
-    <s v="Hannah"/>
-    <x v="2"/>
-    <n v="4379"/>
-    <d v="2022-10-16T00:00:00"/>
-  </r>
-  <r>
-    <s v="Isaac"/>
-    <x v="3"/>
-    <n v="3472"/>
-    <d v="2022-10-19T00:00:00"/>
-  </r>
-  <r>
-    <s v="Tom"/>
-    <x v="2"/>
-    <n v="4554"/>
-    <d v="2022-10-20T00:00:00"/>
-  </r>
-  <r>
-    <s v="Mark"/>
-    <x v="1"/>
-    <n v="6896"/>
-    <d v="2022-10-21T00:00:00"/>
-  </r>
-  <r>
-    <s v="Ashley"/>
-    <x v="3"/>
-    <n v="5839"/>
-    <d v="2022-10-21T00:00:00"/>
-  </r>
-  <r>
-    <s v="Ashley"/>
-    <x v="4"/>
-    <n v="8890"/>
-    <d v="2022-10-23T00:00:00"/>
-  </r>
-  <r>
-    <s v="Mark"/>
-    <x v="3"/>
-    <n v="8845"/>
-    <d v="2022-10-26T00:00:00"/>
-  </r>
-  <r>
-    <s v="Bob"/>
-    <x v="0"/>
-    <n v="6273"/>
-    <d v="2022-10-28T00:00:00"/>
-  </r>
-  <r>
-    <s v="Shelly"/>
-    <x v="1"/>
-    <n v="8269"/>
-    <d v="2022-11-10T00:00:00"/>
-  </r>
-  <r>
-    <s v="Ashley"/>
-    <x v="0"/>
-    <n v="3663"/>
-    <d v="2022-11-10T00:00:00"/>
-  </r>
-  <r>
-    <s v="Tom"/>
-    <x v="2"/>
-    <n v="8697"/>
-    <d v="2022-11-12T00:00:00"/>
-  </r>
-  <r>
-    <s v="Isaac"/>
-    <x v="1"/>
-    <n v="9181"/>
-    <d v="2022-11-14T00:00:00"/>
-  </r>
-  <r>
-    <s v="Hannah"/>
-    <x v="1"/>
-    <n v="2726"/>
-    <d v="2022-11-17T00:00:00"/>
-  </r>
-  <r>
-    <s v="Hannah"/>
-    <x v="0"/>
-    <n v="4399"/>
-    <d v="2022-11-19T00:00:00"/>
-  </r>
-  <r>
-    <s v="Ashley"/>
-    <x v="3"/>
-    <n v="7114"/>
-    <d v="2022-11-20T00:00:00"/>
-  </r>
-  <r>
-    <s v="Hannah"/>
-    <x v="0"/>
-    <n v="6464"/>
-    <d v="2022-11-21T00:00:00"/>
-  </r>
-  <r>
-    <s v="Tom"/>
-    <x v="2"/>
-    <n v="8042"/>
-    <d v="2022-11-28T00:00:00"/>
-  </r>
-  <r>
-    <s v="Ashley"/>
-    <x v="4"/>
-    <n v="5476"/>
-    <d v="2022-12-01T00:00:00"/>
-  </r>
-  <r>
-    <s v="Mark"/>
-    <x v="5"/>
-    <n v="2543"/>
-    <d v="2022-12-04T00:00:00"/>
-  </r>
-  <r>
-    <s v="Hannah"/>
-    <x v="2"/>
-    <n v="1462"/>
-    <d v="2022-12-06T00:00:00"/>
-  </r>
-  <r>
-    <s v="Isaac"/>
-    <x v="4"/>
-    <n v="6076"/>
-    <d v="2022-12-08T00:00:00"/>
-  </r>
-  <r>
-    <s v="Shelly"/>
-    <x v="2"/>
-    <n v="4209"/>
-    <d v="2022-12-11T00:00:00"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F85E135-42AC-47F2-A21F-2971C0B3801C}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F85E135-42AC-47F2-A21F-2971C0B3801C}" name="PivotTable3" cacheId="69" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="F33:G41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -5398,10 +8521,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Sales (in $)" fld="2" baseField="0" baseItem="0" numFmtId="44"/>
+    <dataField name="Total Sales 2022 (in $)" fld="2" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <conditionalFormats count="1">
-    <conditionalFormat type="all" priority="1">
+    <conditionalFormat type="all" priority="2">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
@@ -5530,7 +8653,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C5FFABC-5504-45AA-B3C4-999B86A4E863}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C5FFABC-5504-45AA-B3C4-999B86A4E863}" name="PivotTable2" cacheId="69" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="F17:G25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -5582,10 +8705,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of Sales (in $)" fld="2" subtotal="average" baseField="1" baseItem="1" numFmtId="44"/>
+    <dataField name="Total Sales in 2022 (in $)" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
   </dataFields>
   <conditionalFormats count="1">
-    <conditionalFormat type="all" priority="2">
+    <conditionalFormat type="all" priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
@@ -5630,7 +8753,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C351749D-E223-4225-8E84-FD2D8C5CFEC6}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C351749D-E223-4225-8E84-FD2D8C5CFEC6}" name="PivotTable1" cacheId="69" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="F6:N15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -5722,21 +8845,12 @@
     <dataField name="Sum of Sales (in $)" fld="2" baseField="0" baseItem="1" numFmtId="44"/>
   </dataFields>
   <conditionalFormats count="1">
-    <conditionalFormat type="all" priority="3">
+    <conditionalFormat type="all" priority="1">
       <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
+        <pivotArea type="data" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
-            </reference>
-            <reference field="0" count="7">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
             </reference>
             <reference field="1" count="7" selected="0">
               <x v="0"/>
@@ -5765,7 +8879,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80E7E8C8-BF90-4B55-8617-A3845588747E}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80E7E8C8-BF90-4B55-8617-A3845588747E}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="F2:G9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0">
@@ -5847,6 +8961,17 @@
       </pivotAreas>
     </conditionalFormat>
   </conditionalFormats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -5860,7 +8985,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B2AC2047-3B9C-4BC0-A61A-C321B86A6F57}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B2AC2047-3B9C-4BC0-A61A-C321B86A6F57}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="F2:G10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0">
@@ -5923,7 +9048,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Sales (in $)" fld="2" baseField="0" baseItem="0" numFmtId="44"/>
+    <dataField name="Q2 Total Sales in 2022 (in $)" fld="2" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <conditionalFormats count="1">
     <conditionalFormat type="all" priority="1">
@@ -5947,6 +9072,17 @@
       </pivotAreas>
     </conditionalFormat>
   </conditionalFormats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -5960,7 +9096,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F4075B68-DF21-4440-B84C-BBE38A426FC3}" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F4075B68-DF21-4440-B84C-BBE38A426FC3}" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="F3:G11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0">
@@ -6023,7 +9159,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Sales (in $)" fld="2" baseField="0" baseItem="0" numFmtId="44"/>
+    <dataField name="Q3 Total Sales in 2022 (in $)" fld="2" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <conditionalFormats count="1">
     <conditionalFormat type="all" priority="1">
@@ -6047,6 +9183,17 @@
       </pivotAreas>
     </conditionalFormat>
   </conditionalFormats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -6108,7 +9255,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Sales (in $)" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
+    <dataField name="Q4 Total Sales in 2022 (in $)" fld="2" baseField="1" baseItem="0" numFmtId="44"/>
   </dataFields>
   <conditionalFormats count="1">
     <conditionalFormat type="all" priority="1">
@@ -6155,13 +9302,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82D0D93C-1957-42A9-AD3F-BEDF75EE292F}" name="Sales_Data" displayName="Sales_Data" ref="A1:D100" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82D0D93C-1957-42A9-AD3F-BEDF75EE292F}" name="Sales_Data" displayName="Sales_Data" ref="A1:D100" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <autoFilter ref="A1:D100" xr:uid="{82D0D93C-1957-42A9-AD3F-BEDF75EE292F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9012F35E-91B8-4C6A-A0BC-EA6078D0EE30}" name="Sales Rep" totalsRowLabel="Total" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{5696F228-1F77-42FB-87EC-AFC83D10E794}" name="Category" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{53D55A4A-46C8-4613-BAE8-EE1A5CB8A98C}" name="Sales (in $)" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{87D5728A-42FB-45E2-937A-1DD32790E0A0}" name="Date_Of_Sale" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{9012F35E-91B8-4C6A-A0BC-EA6078D0EE30}" name="Sales Rep" totalsRowLabel="Total" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{5696F228-1F77-42FB-87EC-AFC83D10E794}" name="Category" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{53D55A4A-46C8-4613-BAE8-EE1A5CB8A98C}" name="Sales (in $)" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{87D5728A-42FB-45E2-937A-1DD32790E0A0}" name="Date_Of_Sale" totalsRowFunction="count" dataDxfId="16" totalsRowDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6466,8 +9613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75086E8-52FA-4CA9-9A33-C69E5EC8E212}">
   <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6477,7 +9624,7 @@
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="14.1796875" customWidth="1"/>
     <col min="6" max="6" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="11.1796875" bestFit="1" customWidth="1"/>
@@ -6485,33 +9632,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -6520,26 +9655,12 @@
       <c r="C2" s="13">
         <v>9378</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="18">
         <v>44563</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="str">
-        <f>VLOOKUP(F2,Sales_Data[],2,FALSE)</f>
-        <v>Monitors</v>
-      </c>
-      <c r="H2" s="28">
-        <v>44564</v>
-      </c>
-      <c r="I2" s="13" t="e">
-        <f>VLOOKUP(H2,Sales_Data[],3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -6548,12 +9669,12 @@
       <c r="C3" s="14">
         <v>2613</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>44571</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -6562,12 +9683,12 @@
       <c r="C4" s="13">
         <v>9976</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>44572</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -6576,12 +9697,12 @@
       <c r="C5" s="14">
         <v>9916</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>44574</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -6590,7 +9711,7 @@
       <c r="C6" s="13">
         <v>4153</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>44575</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -6601,7 +9722,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -6610,7 +9731,7 @@
       <c r="C7" s="14">
         <v>9137</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>44576</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -6642,7 +9763,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -6651,7 +9772,7 @@
       <c r="C8" s="13">
         <v>8076</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>44580</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -6683,7 +9804,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -6692,7 +9813,7 @@
       <c r="C9" s="14">
         <v>5141</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>44585</v>
       </c>
       <c r="F9" s="10" t="s">
@@ -6724,7 +9845,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -6733,7 +9854,7 @@
       <c r="C10" s="13">
         <v>1543</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>44596</v>
       </c>
       <c r="F10" s="10" t="s">
@@ -6763,7 +9884,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -6772,7 +9893,7 @@
       <c r="C11" s="13">
         <v>5323</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>44599</v>
       </c>
       <c r="F11" s="10" t="s">
@@ -6802,7 +9923,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -6811,7 +9932,7 @@
       <c r="C12" s="13">
         <v>8464</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>44605</v>
       </c>
       <c r="F12" s="10" t="s">
@@ -6843,7 +9964,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -6852,7 +9973,7 @@
       <c r="C13" s="14">
         <v>4025</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>44610</v>
       </c>
       <c r="F13" s="10" t="s">
@@ -6878,7 +9999,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -6887,7 +10008,7 @@
       <c r="C14" s="13">
         <v>6046</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <v>44615</v>
       </c>
       <c r="F14" s="10" t="s">
@@ -6919,7 +10040,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -6928,7 +10049,7 @@
       <c r="C15" s="14">
         <v>7532</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>44617</v>
       </c>
       <c r="F15" s="10" t="s">
@@ -6960,7 +10081,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -6969,12 +10090,12 @@
       <c r="C16" s="13">
         <v>5169</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <v>44619</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -6983,18 +10104,18 @@
       <c r="C17" s="14">
         <v>6142</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <v>44634</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -7003,18 +10124,18 @@
       <c r="C18" s="13">
         <v>5094</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <v>44640</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7">
-        <v>4992.25</v>
+        <v>99845</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -7023,18 +10144,18 @@
       <c r="C19" s="13">
         <v>9573</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="18">
         <v>44643</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="7">
-        <v>4564.5555555555557</v>
+        <v>41081</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -7043,18 +10164,18 @@
       <c r="C20" s="13">
         <v>6499</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="18">
         <v>44645</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="7">
-        <v>5592.588235294118</v>
+        <v>95074</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -7063,18 +10184,18 @@
       <c r="C21" s="13">
         <v>7876</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="18">
         <v>44647</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G21" s="7">
-        <v>5849.6</v>
+        <v>87744</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -7083,18 +10204,18 @@
       <c r="C22" s="13">
         <v>4292</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="18">
         <v>44648</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7">
-        <v>5770.5625</v>
+        <v>92329</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -7103,18 +10224,18 @@
       <c r="C23" s="14">
         <v>5093</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="19">
         <v>44649</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>4</v>
       </c>
       <c r="G23" s="7">
-        <v>4839.5</v>
+        <v>38716</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -7123,18 +10244,18 @@
       <c r="C24" s="13">
         <v>8103</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="18">
         <v>44654</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G24" s="7">
-        <v>6455.7857142857147</v>
+        <v>90381</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -7143,18 +10264,18 @@
       <c r="C25" s="13">
         <v>8128</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="18">
         <v>44654</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="7">
-        <v>5506.7676767676767</v>
+        <v>545170</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -7163,12 +10284,12 @@
       <c r="C26" s="13">
         <v>2912</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="18">
         <v>44657</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -7177,12 +10298,12 @@
       <c r="C27" s="13">
         <v>8566</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="18">
         <v>44660</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -7191,12 +10312,12 @@
       <c r="C28" s="13">
         <v>6454</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="18">
         <v>44662</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -7205,12 +10326,12 @@
       <c r="C29" s="13">
         <v>1378</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="18">
         <v>44664</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -7219,12 +10340,12 @@
       <c r="C30" s="13">
         <v>6308</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="18">
         <v>44670</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -7233,12 +10354,12 @@
       <c r="C31" s="14">
         <v>7864</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="19">
         <v>44675</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -7247,12 +10368,12 @@
       <c r="C32" s="13">
         <v>6619</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="18">
         <v>44679</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -7261,18 +10382,18 @@
       <c r="C33" s="14">
         <v>2345</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="19">
         <v>44680</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G33" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -7281,7 +10402,7 @@
       <c r="C34" s="13">
         <v>8264</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="18">
         <v>44686</v>
       </c>
       <c r="F34" s="10" t="s">
@@ -7292,7 +10413,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -7301,7 +10422,7 @@
       <c r="C35" s="14">
         <v>3671</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="19">
         <v>44687</v>
       </c>
       <c r="F35" s="10" t="s">
@@ -7312,7 +10433,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -7321,7 +10442,7 @@
       <c r="C36" s="13">
         <v>2912</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="18">
         <v>44704</v>
       </c>
       <c r="F36" s="10" t="s">
@@ -7332,7 +10453,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -7341,7 +10462,7 @@
       <c r="C37" s="13">
         <v>5453</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="18">
         <v>44706</v>
       </c>
       <c r="F37" s="10" t="s">
@@ -7352,7 +10473,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -7361,7 +10482,7 @@
       <c r="C38" s="13">
         <v>1388</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="18">
         <v>44706</v>
       </c>
       <c r="F38" s="10" t="s">
@@ -7372,7 +10493,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -7381,7 +10502,7 @@
       <c r="C39" s="13">
         <v>7260</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="18">
         <v>44706</v>
       </c>
       <c r="F39" s="10" t="s">
@@ -7392,7 +10513,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -7401,7 +10522,7 @@
       <c r="C40" s="13">
         <v>4064</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="18">
         <v>44708</v>
       </c>
       <c r="F40" s="10" t="s">
@@ -7412,7 +10533,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -7421,7 +10542,7 @@
       <c r="C41" s="14">
         <v>3649</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="19">
         <v>44715</v>
       </c>
       <c r="F41" s="10" t="s">
@@ -7432,7 +10553,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -7441,12 +10562,12 @@
       <c r="C42" s="13">
         <v>3755</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="18">
         <v>44715</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -7455,12 +10576,15 @@
       <c r="C43" s="13">
         <v>1760</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="18">
         <v>44717</v>
       </c>
+      <c r="F43" s="10" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -7469,12 +10593,12 @@
       <c r="C44" s="13">
         <v>2098</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="18">
         <v>44727</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -7483,12 +10607,12 @@
       <c r="C45" s="14">
         <v>1042</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="19">
         <v>44732</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -7497,12 +10621,12 @@
       <c r="C46" s="13">
         <v>6155</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="18">
         <v>44737</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -7511,12 +10635,12 @@
       <c r="C47" s="14">
         <v>6749</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="19">
         <v>44745</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -7525,12 +10649,12 @@
       <c r="C48" s="13">
         <v>5920</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="18">
         <v>44754</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -7539,12 +10663,12 @@
       <c r="C49" s="13">
         <v>9923</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="18">
         <v>44759</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -7553,12 +10677,12 @@
       <c r="C50" s="13">
         <v>4872</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="18">
         <v>44760</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -7567,12 +10691,12 @@
       <c r="C51" s="13">
         <v>3960</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="18">
         <v>44771</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -7581,12 +10705,12 @@
       <c r="C52" s="13">
         <v>1811</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="18">
         <v>44771</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -7595,12 +10719,12 @@
       <c r="C53" s="14">
         <v>4867</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="19">
         <v>44777</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -7609,12 +10733,12 @@
       <c r="C54" s="13">
         <v>9296</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="18">
         <v>44779</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -7623,12 +10747,12 @@
       <c r="C55" s="13">
         <v>3181</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="18">
         <v>44780</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -7637,12 +10761,12 @@
       <c r="C56" s="13">
         <v>8673</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="18">
         <v>44780</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -7651,12 +10775,12 @@
       <c r="C57" s="13">
         <v>9574</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="18">
         <v>44780</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -7665,12 +10789,12 @@
       <c r="C58" s="13">
         <v>1984</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="18">
         <v>44785</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -7679,12 +10803,12 @@
       <c r="C59" s="13">
         <v>1927</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D59" s="18">
         <v>44785</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -7693,12 +10817,12 @@
       <c r="C60" s="13">
         <v>9305</v>
       </c>
-      <c r="D60" s="19">
+      <c r="D60" s="18">
         <v>44786</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -7707,12 +10831,12 @@
       <c r="C61" s="14">
         <v>3032</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D61" s="19">
         <v>44788</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -7721,12 +10845,12 @@
       <c r="C62" s="13">
         <v>8923</v>
       </c>
-      <c r="D62" s="19">
+      <c r="D62" s="18">
         <v>44793</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -7735,12 +10859,12 @@
       <c r="C63" s="13">
         <v>2101</v>
       </c>
-      <c r="D63" s="19">
+      <c r="D63" s="18">
         <v>44796</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -7749,12 +10873,12 @@
       <c r="C64" s="13">
         <v>1549</v>
       </c>
-      <c r="D64" s="19">
+      <c r="D64" s="18">
         <v>44798</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -7763,12 +10887,12 @@
       <c r="C65" s="13">
         <v>3271</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D65" s="18">
         <v>44798</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -7777,12 +10901,12 @@
       <c r="C66" s="13">
         <v>6463</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D66" s="18">
         <v>44798</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -7791,12 +10915,12 @@
       <c r="C67" s="13">
         <v>7263</v>
       </c>
-      <c r="D67" s="19">
+      <c r="D67" s="18">
         <v>44800</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -7805,12 +10929,12 @@
       <c r="C68" s="13">
         <v>2821</v>
       </c>
-      <c r="D68" s="19">
+      <c r="D68" s="18">
         <v>44800</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="18" t="s">
+      <c r="A69" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -7819,12 +10943,12 @@
       <c r="C69" s="14">
         <v>5414</v>
       </c>
-      <c r="D69" s="20">
+      <c r="D69" s="19">
         <v>44805</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -7833,12 +10957,12 @@
       <c r="C70" s="13">
         <v>3273</v>
       </c>
-      <c r="D70" s="19">
+      <c r="D70" s="18">
         <v>44807</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -7847,12 +10971,12 @@
       <c r="C71" s="13">
         <v>7525</v>
       </c>
-      <c r="D71" s="19">
+      <c r="D71" s="18">
         <v>44809</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -7861,12 +10985,12 @@
       <c r="C72" s="13">
         <v>1758</v>
       </c>
-      <c r="D72" s="19">
+      <c r="D72" s="18">
         <v>44809</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="18" t="s">
+      <c r="A73" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -7875,12 +10999,12 @@
       <c r="C73" s="14">
         <v>3832</v>
       </c>
-      <c r="D73" s="20">
+      <c r="D73" s="19">
         <v>44814</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -7889,12 +11013,12 @@
       <c r="C74" s="13">
         <v>3849</v>
       </c>
-      <c r="D74" s="19">
+      <c r="D74" s="18">
         <v>44823</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="17" t="s">
+      <c r="A75" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -7903,12 +11027,12 @@
       <c r="C75" s="13">
         <v>3054</v>
       </c>
-      <c r="D75" s="19">
+      <c r="D75" s="18">
         <v>44834</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="17" t="s">
+      <c r="A76" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -7917,12 +11041,12 @@
       <c r="C76" s="13">
         <v>7906</v>
       </c>
-      <c r="D76" s="19">
+      <c r="D76" s="18">
         <v>44845</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="18" t="s">
+      <c r="A77" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -7931,12 +11055,12 @@
       <c r="C77" s="14">
         <v>7548</v>
       </c>
-      <c r="D77" s="20">
+      <c r="D77" s="19">
         <v>44845</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="17" t="s">
+      <c r="A78" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -7945,12 +11069,12 @@
       <c r="C78" s="13">
         <v>4868</v>
       </c>
-      <c r="D78" s="19">
+      <c r="D78" s="18">
         <v>44847</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="17" t="s">
+      <c r="A79" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -7959,12 +11083,12 @@
       <c r="C79" s="13">
         <v>4379</v>
       </c>
-      <c r="D79" s="19">
+      <c r="D79" s="18">
         <v>44850</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -7973,12 +11097,12 @@
       <c r="C80" s="13">
         <v>3472</v>
       </c>
-      <c r="D80" s="19">
+      <c r="D80" s="18">
         <v>44853</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="18" t="s">
+      <c r="A81" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -7987,12 +11111,12 @@
       <c r="C81" s="14">
         <v>4554</v>
       </c>
-      <c r="D81" s="20">
+      <c r="D81" s="19">
         <v>44854</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="17" t="s">
+      <c r="A82" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -8001,12 +11125,12 @@
       <c r="C82" s="13">
         <v>6896</v>
       </c>
-      <c r="D82" s="19">
+      <c r="D82" s="18">
         <v>44855</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="18" t="s">
+      <c r="A83" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -8015,12 +11139,12 @@
       <c r="C83" s="14">
         <v>5839</v>
       </c>
-      <c r="D83" s="20">
+      <c r="D83" s="19">
         <v>44855</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="17" t="s">
+      <c r="A84" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -8029,12 +11153,12 @@
       <c r="C84" s="13">
         <v>8890</v>
       </c>
-      <c r="D84" s="19">
+      <c r="D84" s="18">
         <v>44857</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="17" t="s">
+      <c r="A85" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -8043,12 +11167,12 @@
       <c r="C85" s="13">
         <v>8845</v>
       </c>
-      <c r="D85" s="19">
+      <c r="D85" s="18">
         <v>44860</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="17" t="s">
+      <c r="A86" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -8057,12 +11181,12 @@
       <c r="C86" s="13">
         <v>6273</v>
       </c>
-      <c r="D86" s="19">
+      <c r="D86" s="18">
         <v>44862</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -8071,12 +11195,12 @@
       <c r="C87" s="14">
         <v>8269</v>
       </c>
-      <c r="D87" s="20">
+      <c r="D87" s="19">
         <v>44875</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="17" t="s">
+      <c r="A88" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -8085,12 +11209,12 @@
       <c r="C88" s="13">
         <v>3663</v>
       </c>
-      <c r="D88" s="19">
+      <c r="D88" s="18">
         <v>44875</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="17" t="s">
+      <c r="A89" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -8099,12 +11223,12 @@
       <c r="C89" s="13">
         <v>8697</v>
       </c>
-      <c r="D89" s="19">
+      <c r="D89" s="18">
         <v>44877</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="17" t="s">
+      <c r="A90" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -8113,12 +11237,12 @@
       <c r="C90" s="13">
         <v>9181</v>
       </c>
-      <c r="D90" s="19">
+      <c r="D90" s="18">
         <v>44879</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="18" t="s">
+      <c r="A91" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -8127,12 +11251,12 @@
       <c r="C91" s="14">
         <v>2726</v>
       </c>
-      <c r="D91" s="20">
+      <c r="D91" s="19">
         <v>44882</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="17" t="s">
+      <c r="A92" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -8141,12 +11265,12 @@
       <c r="C92" s="13">
         <v>4399</v>
       </c>
-      <c r="D92" s="19">
+      <c r="D92" s="18">
         <v>44884</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="17" t="s">
+      <c r="A93" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -8155,12 +11279,12 @@
       <c r="C93" s="13">
         <v>7114</v>
       </c>
-      <c r="D93" s="19">
+      <c r="D93" s="18">
         <v>44885</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="17" t="s">
+      <c r="A94" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -8169,12 +11293,12 @@
       <c r="C94" s="13">
         <v>6464</v>
       </c>
-      <c r="D94" s="19">
+      <c r="D94" s="18">
         <v>44886</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="18" t="s">
+      <c r="A95" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -8183,12 +11307,12 @@
       <c r="C95" s="14">
         <v>8042</v>
       </c>
-      <c r="D95" s="20">
+      <c r="D95" s="19">
         <v>44893</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="17" t="s">
+      <c r="A96" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -8197,12 +11321,12 @@
       <c r="C96" s="13">
         <v>5476</v>
       </c>
-      <c r="D96" s="19">
+      <c r="D96" s="18">
         <v>44896</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="17" t="s">
+      <c r="A97" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -8211,12 +11335,12 @@
       <c r="C97" s="13">
         <v>2543</v>
       </c>
-      <c r="D97" s="19">
+      <c r="D97" s="18">
         <v>44899</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="17" t="s">
+      <c r="A98" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -8225,12 +11349,12 @@
       <c r="C98" s="13">
         <v>1462</v>
       </c>
-      <c r="D98" s="19">
+      <c r="D98" s="18">
         <v>44901</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="17" t="s">
+      <c r="A99" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -8239,33 +11363,33 @@
       <c r="C99" s="13">
         <v>6076</v>
       </c>
-      <c r="D99" s="19">
+      <c r="D99" s="18">
         <v>44903</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="24" t="s">
+      <c r="A100" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B100" s="25" t="s">
+      <c r="B100" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C100" s="26">
+      <c r="C100" s="25">
         <v>4209</v>
       </c>
-      <c r="D100" s="27">
+      <c r="D100" s="26">
         <v>44906</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting pivot="1" sqref="G8:M14">
-    <cfRule type="top10" dxfId="26" priority="3" rank="1"/>
-  </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="G18:G24">
-    <cfRule type="top10" dxfId="25" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="G34:G40">
-    <cfRule type="top10" dxfId="24" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="G15:M15">
+    <cfRule type="top10" dxfId="4" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
@@ -8279,8 +11403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C56B07-14B3-4439-B945-F7E61AD0FAC2}">
   <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8514,6 +11638,9 @@
       <c r="D13" s="8">
         <v>44605</v>
       </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
@@ -8671,9 +11798,10 @@
     </row>
   </sheetData>
   <conditionalFormatting pivot="1" sqref="G3:G8">
-    <cfRule type="top10" dxfId="4" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8682,7 +11810,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8690,7 +11818,7 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.1796875" bestFit="1" customWidth="1"/>
@@ -8730,7 +11858,7 @@
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -8934,6 +12062,9 @@
       <c r="D13" s="8">
         <v>44687</v>
       </c>
+      <c r="F13" s="10" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
@@ -9091,9 +12222,10 @@
     </row>
   </sheetData>
   <conditionalFormatting pivot="1" sqref="G3:G9">
-    <cfRule type="top10" dxfId="8" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="13" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9102,7 +12234,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9110,7 +12242,7 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.1796875" bestFit="1" customWidth="1"/>
@@ -9164,7 +12296,7 @@
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -9368,6 +12500,9 @@
       <c r="D14" s="8">
         <v>44785</v>
       </c>
+      <c r="F14" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
@@ -9595,9 +12730,10 @@
     </row>
   </sheetData>
   <conditionalFormatting pivot="1" sqref="G4:G10">
-    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9605,8 +12741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90CAFCE-53C6-42E1-A772-EAFF2848A597}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9615,7 +12751,7 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -9649,7 +12785,7 @@
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -9875,6 +13011,9 @@
       <c r="D15" s="8">
         <v>44877</v>
       </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
@@ -10032,7 +13171,7 @@
     </row>
   </sheetData>
   <conditionalFormatting pivot="1" sqref="G3:G8">
-    <cfRule type="top10" dxfId="12" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="11" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
